--- a/biology/Médecine/1547_en_santé_et_médecine/1547_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1547_en_santé_et_médecine/1547_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1547_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1547_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1547 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1547_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1547_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hospice Saint-Jean de Brignoles, en Provence[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hospice Saint-Jean de Brignoles, en Provence.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1547_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1547_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nostradamus est appelé à Lyon où sévit la peste[2].
-Via Santa Maria, à Pise en Toscane, il est interdit de déposer près du tour d'abandon de l'hospice des Trovatelli les enfants trop grands pour passer par la grille de fer qui le protège[3],[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nostradamus est appelé à Lyon où sévit la peste.
+Via Santa Maria, à Pise en Toscane, il est interdit de déposer près du tour d'abandon de l'hospice des Trovatelli les enfants trop grands pour passer par la grille de fer qui le protège,.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1547_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1547_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,11 +588,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrew Boorde (en) (c.1490-1549), médecin et voyageur anglais, fait imprimer son « Bréviaire de santé » (The Breviary of health), à Londres, par William Middleton[5],[6].
-Jean Gonthier d'Andernach (1505-1574) fait imprimer à Strasbourg chez Rémy Guédon sa propre traduction française[7] du régime de santé qu'il avait publié en latin en 1542[8], traduction qui constitue le seul ouvrage en français paru à Strasbourg au XVIe siècle sur les cent deux titres recensés par Miriam Usher Chrisman[9],[10].
-Première édition, posthume, de la traduction latine par Andrea Alpago (c.1450-1521) du Commentaire par Ibn Nafis (1213-1288) de l'Anatomie du Canon d'Avicenne (980-1037)[11],[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrew Boorde (en) (c.1490-1549), médecin et voyageur anglais, fait imprimer son « Bréviaire de santé » (The Breviary of health), à Londres, par William Middleton,.
+Jean Gonthier d'Andernach (1505-1574) fait imprimer à Strasbourg chez Rémy Guédon sa propre traduction française du régime de santé qu'il avait publié en latin en 1542, traduction qui constitue le seul ouvrage en français paru à Strasbourg au XVIe siècle sur les cent deux titres recensés par Miriam Usher Chrisman,.
+Première édition, posthume, de la traduction latine par Andrea Alpago (c.1450-1521) du Commentaire par Ibn Nafis (1213-1288) de l'Anatomie du Canon d'Avicenne (980-1037),.
 </t>
         </is>
       </c>
